--- a/HW3/EasyGo_Data.xlsx
+++ b/HW3/EasyGo_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaha\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319AE959-53C5-44A7-B38E-3DE580EB4A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E83F23-82BD-4D3A-96A1-E887B279BCD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -898,8 +898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1865,7 +1865,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1966,7 +1968,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1989,7 +1993,7 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2000,7 +2004,7 @@
         <v>0.4</v>
       </c>
       <c r="C3">
-        <v>0.26666666666666672</v>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
